--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tff3-Cxcr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tff3-Cxcr4.xlsx
@@ -534,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2584886666666666</v>
+        <v>0.02672833333333334</v>
       </c>
       <c r="H2">
-        <v>0.775466</v>
+        <v>0.08018500000000001</v>
       </c>
       <c r="I2">
-        <v>0.8149460619722454</v>
+        <v>0.3128877685602129</v>
       </c>
       <c r="J2">
-        <v>0.8149460619722454</v>
+        <v>0.3128877685602129</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>223.2367336666667</v>
+        <v>13.71977066666667</v>
       </c>
       <c r="N2">
-        <v>669.7102010000001</v>
+        <v>41.159312</v>
       </c>
       <c r="O2">
-        <v>0.9523995969492647</v>
+        <v>0.5515038136402627</v>
       </c>
       <c r="P2">
-        <v>0.9523995969492648</v>
+        <v>0.5515038136402626</v>
       </c>
       <c r="Q2">
-        <v>57.70416563651845</v>
+        <v>0.3667066036355556</v>
       </c>
       <c r="R2">
-        <v>519.337490728666</v>
+        <v>3.30035943272</v>
       </c>
       <c r="S2">
-        <v>0.7761543009577569</v>
+        <v>0.1725587976023493</v>
       </c>
       <c r="T2">
-        <v>0.7761543009577571</v>
+        <v>0.1725587976023493</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2584886666666666</v>
+        <v>0.02672833333333334</v>
       </c>
       <c r="H3">
-        <v>0.775466</v>
+        <v>0.08018500000000001</v>
       </c>
       <c r="I3">
-        <v>0.8149460619722454</v>
+        <v>0.3128877685602129</v>
       </c>
       <c r="J3">
-        <v>0.8149460619722454</v>
+        <v>0.3128877685602129</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>12.842353</v>
       </c>
       <c r="O3">
-        <v>0.01826320071400581</v>
+        <v>0.172077867958883</v>
       </c>
       <c r="P3">
-        <v>0.01826320071400582</v>
+        <v>0.1720778679588829</v>
       </c>
       <c r="Q3">
-        <v>1.106534234610889</v>
+        <v>0.1144182305894444</v>
       </c>
       <c r="R3">
-        <v>9.958808111498</v>
+        <v>1.029764075305</v>
       </c>
       <c r="S3">
-        <v>0.01488352350088774</v>
+        <v>0.05384106012425385</v>
       </c>
       <c r="T3">
-        <v>0.01488352350088774</v>
+        <v>0.05384106012425385</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2584886666666666</v>
+        <v>0.02672833333333334</v>
       </c>
       <c r="H4">
-        <v>0.775466</v>
+        <v>0.08018500000000001</v>
       </c>
       <c r="I4">
-        <v>0.8149460619722454</v>
+        <v>0.3128877685602129</v>
       </c>
       <c r="J4">
-        <v>0.8149460619722454</v>
+        <v>0.3128877685602129</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>20.629391</v>
       </c>
       <c r="O4">
-        <v>0.0293372023367295</v>
+        <v>0.2764183184008545</v>
       </c>
       <c r="P4">
-        <v>0.0293372023367295</v>
+        <v>0.2764183184008545</v>
       </c>
       <c r="Q4">
-        <v>1.777487924578444</v>
+        <v>0.1837964130372222</v>
       </c>
       <c r="R4">
-        <v>15.997391321206</v>
+        <v>1.654167717335</v>
       </c>
       <c r="S4">
-        <v>0.02390823751360066</v>
+        <v>0.08648791083360979</v>
       </c>
       <c r="T4">
-        <v>0.02390823751360066</v>
+        <v>0.08648791083360979</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.05869633333333334</v>
+        <v>0.05869633333333333</v>
       </c>
       <c r="H5">
         <v>0.176089</v>
       </c>
       <c r="I5">
-        <v>0.1850539380277546</v>
+        <v>0.6871122314397871</v>
       </c>
       <c r="J5">
-        <v>0.1850539380277546</v>
+        <v>0.6871122314397871</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>223.2367336666667</v>
+        <v>13.71977066666667</v>
       </c>
       <c r="N5">
-        <v>669.7102010000001</v>
+        <v>41.159312</v>
       </c>
       <c r="O5">
-        <v>0.9523995969492647</v>
+        <v>0.5515038136402627</v>
       </c>
       <c r="P5">
-        <v>0.9523995969492648</v>
+        <v>0.5515038136402626</v>
       </c>
       <c r="Q5">
-        <v>13.10317773154323</v>
+        <v>0.8053002323075555</v>
       </c>
       <c r="R5">
-        <v>117.928599583889</v>
+        <v>7.247702090768</v>
       </c>
       <c r="S5">
-        <v>0.1762452959915077</v>
+        <v>0.3789450160379134</v>
       </c>
       <c r="T5">
-        <v>0.1762452959915077</v>
+        <v>0.3789450160379133</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.05869633333333334</v>
+        <v>0.05869633333333333</v>
       </c>
       <c r="H6">
         <v>0.176089</v>
       </c>
       <c r="I6">
-        <v>0.1850539380277546</v>
+        <v>0.6871122314397871</v>
       </c>
       <c r="J6">
-        <v>0.1850539380277546</v>
+        <v>0.6871122314397871</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>12.842353</v>
       </c>
       <c r="O6">
-        <v>0.01826320071400581</v>
+        <v>0.172077867958883</v>
       </c>
       <c r="P6">
-        <v>0.01826320071400582</v>
+        <v>0.1720778679588829</v>
       </c>
       <c r="Q6">
-        <v>0.2512663441574445</v>
+        <v>0.2512663441574444</v>
       </c>
       <c r="R6">
         <v>2.261397097417</v>
       </c>
       <c r="S6">
-        <v>0.003379677213118075</v>
+        <v>0.1182368078346291</v>
       </c>
       <c r="T6">
-        <v>0.003379677213118075</v>
+        <v>0.1182368078346291</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.05869633333333334</v>
+        <v>0.05869633333333333</v>
       </c>
       <c r="H7">
         <v>0.176089</v>
       </c>
       <c r="I7">
-        <v>0.1850539380277546</v>
+        <v>0.6871122314397871</v>
       </c>
       <c r="J7">
-        <v>0.1850539380277546</v>
+        <v>0.6871122314397871</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>20.629391</v>
       </c>
       <c r="O7">
-        <v>0.0293372023367295</v>
+        <v>0.2764183184008545</v>
       </c>
       <c r="P7">
-        <v>0.0293372023367295</v>
+        <v>0.2764183184008545</v>
       </c>
       <c r="Q7">
         <v>0.4036232035332222</v>
@@ -880,10 +880,10 @@
         <v>3.632608831799</v>
       </c>
       <c r="S7">
-        <v>0.005428964823128838</v>
+        <v>0.1899304075672447</v>
       </c>
       <c r="T7">
-        <v>0.005428964823128838</v>
+        <v>0.1899304075672447</v>
       </c>
     </row>
   </sheetData>
